--- a/Data Model.xlsx
+++ b/Data Model.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="7720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="7720" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Model" sheetId="1" r:id="rId1"/>
+    <sheet name="High level Architecture" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -62,9 +64,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
     <t>Product_id(PK)</t>
   </si>
   <si>
@@ -107,9 +106,6 @@
     <t>Date_id(PK)</t>
   </si>
   <si>
-    <t>Store</t>
-  </si>
-  <si>
     <t>Store_id</t>
   </si>
   <si>
@@ -128,9 +124,6 @@
     <t>Household_id(FK)</t>
   </si>
   <si>
-    <t>Employee</t>
-  </si>
-  <si>
     <t>Employee_ID(PK)</t>
   </si>
   <si>
@@ -152,9 +145,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>Sales</t>
-  </si>
-  <si>
     <t>SalesKey(SK)</t>
   </si>
   <si>
@@ -164,9 +154,6 @@
     <t>Customer_id(PK)</t>
   </si>
   <si>
-    <t>Person</t>
-  </si>
-  <si>
     <t>Customer_id</t>
   </si>
   <si>
@@ -177,13 +164,64 @@
   </si>
   <si>
     <t>Product_code</t>
+  </si>
+  <si>
+    <t>Dim_Person</t>
+  </si>
+  <si>
+    <t>Dim_Address</t>
+  </si>
+  <si>
+    <t>Dim_Employee</t>
+  </si>
+  <si>
+    <t>Dim_Store</t>
+  </si>
+  <si>
+    <t>Fact_Sales</t>
+  </si>
+  <si>
+    <t>Dim_Date</t>
+  </si>
+  <si>
+    <t>Dim_Product</t>
+  </si>
+  <si>
+    <t>JobControl</t>
+  </si>
+  <si>
+    <t>Job_id(PK)</t>
+  </si>
+  <si>
+    <t>JobName</t>
+  </si>
+  <si>
+    <t>Target_Name</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Load_date</t>
+  </si>
+  <si>
+    <t>ETL (Extract Transform Load)</t>
+  </si>
+  <si>
+    <t>check customer id, store_id,product_code are exist in the table or not</t>
+  </si>
+  <si>
+    <t>data cleaning &amp; quality checks</t>
+  </si>
+  <si>
+    <t>source_name(Store-id)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,16 +229,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -208,12 +266,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,11 +782,906 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Snip Single Corner Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="609600"/>
+          <a:ext cx="1041400" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Demographic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> profiles of citiizens. data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Snip Single Corner Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="1841500"/>
+          <a:ext cx="1098550" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Management Hierarchy data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Round Single Corner Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="3022600"/>
+          <a:ext cx="850900" cy="463550"/>
+        </a:xfrm>
+        <a:prstGeom prst="round1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Product Master</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Snip Single Corner Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330200" y="3892550"/>
+          <a:ext cx="1047750" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Sales data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>139702</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381002</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Right Arrow 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1628665">
+          <a:off x="1358902" y="1231899"/>
+          <a:ext cx="2070100" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Right Arrow 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1346200" y="2159001"/>
+          <a:ext cx="2108200" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101598</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>146051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>374648</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Right Arrow 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20483276">
+          <a:off x="1320798" y="2908301"/>
+          <a:ext cx="2101850" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>184806</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>78229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>349906</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>166449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Right Arrow 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20205793" flipV="1">
+          <a:off x="1404006" y="3577079"/>
+          <a:ext cx="1993900" cy="88220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Can 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683000" y="1917700"/>
+          <a:ext cx="1155700" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Staging</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Area</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Can 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6000750" y="1765300"/>
+          <a:ext cx="1917700" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Dataware</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> House	</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Can 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9029700" y="2152650"/>
+          <a:ext cx="914400" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>DataMart</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Right Arrow 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4845050" y="2425700"/>
+          <a:ext cx="1123950" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Right Arrow 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7956550" y="2292350"/>
+          <a:ext cx="927100" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Flowchart: Multidocument 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10623550" y="1612900"/>
+          <a:ext cx="1143000" cy="863600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMultidocument">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Reports</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Right Arrow 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10026650" y="2159000"/>
+          <a:ext cx="482600" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="E2:E12" totalsRowShown="0">
   <autoFilter ref="E2:E12"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Person"/>
+    <tableColumn id="1" name="Dim_Person"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -720,7 +1691,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table25" displayName="Table25" ref="B7:B14" totalsRowShown="0">
   <autoFilter ref="B7:B14"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Address"/>
+    <tableColumn id="1" name="Dim_Address"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -730,17 +1701,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table26" displayName="Table26" ref="L14:L21" totalsRowShown="0">
   <autoFilter ref="L14:L21"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Product"/>
+    <tableColumn id="1" name="Dim_Product"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table27" displayName="Table27" ref="L2:L9" totalsRowShown="0">
-  <autoFilter ref="L2:L9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table27" displayName="Table27" ref="L2:L10" totalsRowShown="0">
+  <autoFilter ref="L2:L10"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Date"/>
+    <tableColumn id="1" name="Dim_Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -750,7 +1721,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table28" displayName="Table28" ref="E16:E26" totalsRowShown="0">
   <autoFilter ref="E16:E26"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Store"/>
+    <tableColumn id="1" name="Dim_Store"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -760,7 +1731,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table259" displayName="Table259" ref="B16:B19" totalsRowShown="0">
   <autoFilter ref="B16:B19"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Employee"/>
+    <tableColumn id="1" name="Dim_Employee"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -770,7 +1741,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table2711" displayName="Table2711" ref="H8:H15" totalsRowShown="0">
   <autoFilter ref="H8:H15"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Sales"/>
+    <tableColumn id="1" name="Fact_Sales"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1039,10 +2010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L24"/>
+  <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1059,18 +2030,18 @@
         <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
@@ -1078,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -1086,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
@@ -1094,23 +2065,23 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1119,10 +2090,10 @@
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
@@ -1133,10 +2104,10 @@
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
@@ -1147,10 +2118,10 @@
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
@@ -1161,10 +2132,10 @@
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
@@ -1175,35 +2146,35 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L14" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
@@ -1211,35 +2182,35 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="L16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
@@ -1247,10 +2218,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
@@ -1258,15 +2229,15 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
@@ -1274,35 +2245,71 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L25" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L26" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L27" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L28" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L29" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L30" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1318,4 +2325,64 @@
     <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>